--- a/Data/Solar Power.xlsx
+++ b/Data/Solar Power.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Progressive Hedging /Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5647DD-9B58-004A-9862-FA4CA2DC2B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EAAA6-E088-0C4E-BD31-AB1869FD8401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="4" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Metrics</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Version6</t>
-  </si>
-  <si>
-    <t>2024 USD/kW/year</t>
   </si>
   <si>
     <t>O&amp;M cost change by year</t>
@@ -221,7 +218,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -233,6 +230,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -551,23 +550,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344E307-70EA-9749-BC3D-54A83804696F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -575,21 +575,21 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>3190170.44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5832190.2199999997</v>
+      <c r="B2" s="10">
+        <v>3190170</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5832190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>25</v>
       </c>
     </row>
@@ -597,10 +597,10 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -608,45 +608,45 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>50115.586578286311</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100231.17315657262</v>
+      <c r="B5" s="10">
+        <v>50115</v>
+      </c>
+      <c r="C5" s="10">
+        <v>100231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>0.91825292799460578</v>
-      </c>
-      <c r="C6">
-        <v>0.91825292799460578</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.91825000000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.91825000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <f t="shared" ref="B7:C7" si="0">1/B3</f>
         <v>0.04</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9">
         <v>28370</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>56739</v>
       </c>
     </row>
@@ -654,10 +654,10 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -671,12 +671,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="305" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -707,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.33333333333333331</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C2">
-        <v>0.41666666666666669</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="D2">
         <v>0.25</v>
@@ -721,13 +722,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.15522989757542691</v>
+        <v>0.1552</v>
       </c>
       <c r="C3">
-        <v>0.50856305638583266</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="D3">
-        <v>0.74167086272300786</v>
+        <v>0.74170000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,13 +736,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5.4199582434748067E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>0.12591590104615749</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="D4">
-        <v>0.1225657227029899</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.85621831234102785</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="C5">
-        <v>0.60135907735035121</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="D5">
-        <v>0.47631738929326362</v>
+        <v>0.4763</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0556952793648531</v>
+        <v>1.0557000000000001</v>
       </c>
       <c r="C6">
-        <v>1.1341867803503789</v>
+        <v>1.1342000000000001</v>
       </c>
       <c r="D6">
-        <v>1.130393410143069</v>
+        <v>1.1304000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -779,18 +780,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4491238B-0F4C-1343-88A8-2D1E4AFF318E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="237" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,60 +803,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.33333333333333331</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C2">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.15523139700875699</v>
+        <v>0.1552</v>
       </c>
       <c r="C3">
-        <v>0.59597154834045141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5.4197761687388983E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>0.124667399969838</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.85621702849971493</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="C5">
-        <v>0.55102695639968113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0556933572122109</v>
+        <v>1.0557000000000001</v>
       </c>
       <c r="C6">
-        <v>1.1327716305262261</v>
+        <v>1.1328</v>
       </c>
     </row>
   </sheetData>
@@ -867,12 +868,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="237" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -896,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.44916490991451191</v>
+        <v>0.44919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,9 +907,8 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1010963714528617</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>0.1011</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.63816085096443287</v>
+        <v>0.63819999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -922,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.106383260388071</v>
+        <v>1.1064000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DAB95-499B-884C-8EAD-AAE9CFA64804}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="C47:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,26 +956,26 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>1.2479</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1459,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,12 +1477,8 @@
       <c r="E33">
         <v>1.0756600000000001</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1492,13 +1490,8 @@
       <c r="C34" s="1">
         <v>25.6</v>
       </c>
-      <c r="G34" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H34" s="1">
-        <f>C34*$E$33</f>
-        <v>27.536896000000002</v>
-      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1514,13 +1507,8 @@
         <f>-LN(C35/C34)</f>
         <v>8.5591930335403507E-2</v>
       </c>
-      <c r="G35" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:H46" si="4">C35*$E$33</f>
-        <v>25.278010000000002</v>
-      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -1533,16 +1521,11 @@
         <v>18.2</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D46" si="5">-LN(C36/C35)</f>
+        <f t="shared" ref="D36:D46" si="4">-LN(C36/C35)</f>
         <v>0.25557882706736362</v>
       </c>
-      <c r="G36" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="4"/>
-        <v>19.577012</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -1555,16 +1538,11 @@
         <v>15.4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16705408466316607</v>
       </c>
-      <c r="G37" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="4"/>
-        <v>16.565164000000003</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -1577,16 +1555,11 @@
         <v>13.7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11697167658550435</v>
       </c>
-      <c r="G38" s="1">
-        <v>2014</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="4"/>
-        <v>14.736542</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1599,16 +1572,11 @@
         <v>12.4</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.9699360223087924E-2</v>
       </c>
-      <c r="G39" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="4"/>
-        <v>13.338184000000002</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -1621,16 +1589,11 @@
         <v>11.3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.2893746892696208E-2</v>
       </c>
-      <c r="G40" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="4"/>
-        <v>12.154958000000001</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -1643,16 +1606,11 @@
         <v>10.9</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.6039936483196928E-2</v>
       </c>
-      <c r="G41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="4"/>
-        <v>11.724694000000001</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1665,16 +1623,11 @@
         <v>10.4</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.6956983087770979E-2</v>
       </c>
-      <c r="G42" s="1">
-        <v>2018</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="4"/>
-        <v>11.186864000000002</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1687,16 +1640,11 @@
         <v>9.9</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9271049006782794E-2</v>
       </c>
-      <c r="G43" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="4"/>
-        <v>10.649034</v>
-      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1709,16 +1657,11 @@
         <v>9.6</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.0771658666753774E-2</v>
       </c>
-      <c r="G44" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="4"/>
-        <v>10.326336</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -1731,16 +1674,11 @@
         <v>9.6</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="1">
-        <v>2021</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="4"/>
-        <v>10.326336</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -1753,210 +1691,83 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.2559614418796007E-2</v>
       </c>
-      <c r="G46" s="1">
-        <v>2022</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="4"/>
-        <v>9.8960720000000002</v>
-      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C47">
-        <f>C46*$E$50</f>
-        <v>8.7532883435133044</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2023</v>
-      </c>
-      <c r="H47" s="1">
-        <f>H46*$E$50</f>
-        <v>9.4155621395835229</v>
-      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <f t="shared" ref="C48:C52" si="6">C47*$E$50</f>
-        <v>8.3282670461615105</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ref="H48:H64" si="7">H47*$E$50</f>
-        <v>8.9583837308740915</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <f t="shared" si="6"/>
-        <v>7.9238829192208193</v>
-      </c>
-      <c r="E49">
-        <f>AVERAGE(D39:D46)</f>
-        <v>4.9774043597385582E-2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2025</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="7"/>
-        <v>8.5234039008890665</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <f t="shared" si="6"/>
-        <v>7.5391339121934546</v>
-      </c>
-      <c r="E50">
-        <f>EXP(-E49)</f>
-        <v>0.9514443851644897</v>
-      </c>
-      <c r="G50" s="1">
-        <v>2026</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="7"/>
-        <v>8.1095447839900103</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C51">
-        <f t="shared" si="6"/>
-        <v>7.1730666297596555</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2027</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="7"/>
-        <v>7.7157808509672696</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C52">
-        <f t="shared" si="6"/>
-        <v>6.8247739692955935</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2028</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="7"/>
-        <v>7.3411363678124966</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G53" s="1">
-        <v>2029</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="7"/>
-        <v>6.9846829778820361</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G54" s="1">
-        <v>2030</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="7"/>
-        <v>6.6455374014598512</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G55" s="1">
-        <v>2031</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="7"/>
-        <v>6.322859247019589</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G56" s="1">
-        <v>2032</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="7"/>
-        <v>6.0158489287621615</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G57" s="1">
-        <v>2033</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="7"/>
-        <v>5.7237456852685691</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G58" s="1">
-        <v>2034</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="7"/>
-        <v>5.4458256943582546</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G59" s="1">
-        <v>2035</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" si="7"/>
-        <v>5.1814002794816698</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G60" s="1">
-        <v>2036</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="7"/>
-        <v>4.929814203202552</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G61" s="1">
-        <v>2037</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="7"/>
-        <v>4.6904440435412207</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G62" s="1">
-        <v>2038</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="7"/>
-        <v>4.4626966491555198</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G63" s="1">
-        <v>2039</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="7"/>
-        <v>4.2460076695314015</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G64" s="1">
-        <v>2040</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" si="7"/>
-        <v>4.039840156541012</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -2128,23 +1939,23 @@
         <v>0.04</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:G78" si="8">1/25</f>
+        <f t="shared" ref="C78:G78" si="5">1/25</f>
         <v>0.04</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="F78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
     </row>
@@ -2161,11 +1972,11 @@
         <v>18890.733399999997</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:E79" si="9">D72*0.58</f>
+        <f t="shared" ref="D79:E79" si="6">D72*0.58</f>
         <v>366410.56299999997</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>548260.0567999999</v>
       </c>
       <c r="F79">
@@ -2202,7 +2013,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81">
         <v>0.91825292799460578</v>
@@ -2225,7 +2036,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82">
         <v>88</v>
